--- a/DASA1.xlsx
+++ b/DASA1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_DatPT\KmeanCluster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Hoc\Projects\hethongthongminh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72BF7D0A-325C-4279-BB5C-F82EF9FAEFC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB468E3E-88CE-470D-B4F8-0AC8F6CAC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="325">
   <si>
     <t>Địa chỉ nhà</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Đỗ Ngọc Anh</t>
   </si>
   <si>
-    <t>12 Lê Hồng Phong, phường Đông Khê</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Hiền</t>
   </si>
   <si>
@@ -756,30 +753,15 @@
     <t>20.99746076823468</t>
   </si>
   <si>
-    <t>16.060499</t>
-  </si>
-  <si>
     <t>21.014346</t>
   </si>
   <si>
-    <t>20.846016</t>
-  </si>
-  <si>
     <t>21.009150</t>
   </si>
   <si>
-    <t>10.747580</t>
-  </si>
-  <si>
-    <t>21.005937</t>
-  </si>
-  <si>
     <t>21.020755</t>
   </si>
   <si>
-    <t>20.843015</t>
-  </si>
-  <si>
     <t>20.998676</t>
   </si>
   <si>
@@ -991,6 +973,33 @@
   </si>
   <si>
     <t>20.997468935118016</t>
+  </si>
+  <si>
+    <t>20.060499</t>
+  </si>
+  <si>
+    <t>21.0747580</t>
+  </si>
+  <si>
+    <t>21.0131391</t>
+  </si>
+  <si>
+    <t>105.8030341</t>
+  </si>
+  <si>
+    <t>20.9658777</t>
+  </si>
+  <si>
+    <t>105.7668447</t>
+  </si>
+  <si>
+    <t>21.0332724</t>
+  </si>
+  <si>
+    <t>105.8342964</t>
+  </si>
+  <si>
+    <t>12 Lê Hồng Phong</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,6 +1083,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,26 +1368,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1388,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2">
         <v>105.81032244281</v>
@@ -1408,7 +1420,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2">
         <v>105.806701408824</v>
@@ -1428,7 +1440,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1439,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2">
         <v>105.82230587855599</v>
@@ -1448,7 +1460,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2">
         <v>105.791127076644</v>
@@ -1468,7 +1480,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2">
         <v>105.795255224729</v>
@@ -1488,7 +1500,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2">
         <v>105.844420055303</v>
@@ -1508,7 +1520,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2">
         <v>105.81292728867901</v>
@@ -1528,7 +1540,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E9" s="2">
         <v>105.827454503227</v>
@@ -1548,7 +1560,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="2">
         <v>105.801562186119</v>
@@ -1568,7 +1580,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E11" s="2">
         <v>105.8141240628</v>
@@ -1588,7 +1600,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="2">
         <v>105.81284346299999</v>
@@ -1608,7 +1620,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2">
         <v>105.80291017010001</v>
@@ -1628,7 +1640,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="2">
         <v>105.843757166</v>
@@ -1648,7 +1660,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1659,7 +1671,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="2">
         <v>105.85625295299999</v>
@@ -1668,7 +1680,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="2">
         <v>105.81500733</v>
@@ -1688,7 +1700,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" s="2">
         <v>105.7873040835</v>
@@ -1708,7 +1720,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="2">
         <v>105.81251213</v>
@@ -1728,7 +1740,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2">
         <v>105.811295704</v>
@@ -1748,7 +1760,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" s="2">
         <v>105.793096151</v>
@@ -1768,7 +1780,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="3">
         <v>105.851051968269</v>
@@ -1788,7 +1800,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1799,7 +1811,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3">
         <v>105.80130106854</v>
@@ -1808,7 +1820,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1819,7 +1831,7 @@
         <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3">
         <v>105.812151394309</v>
@@ -1828,7 +1840,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" s="3">
         <v>105.84714346008001</v>
@@ -1848,7 +1860,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>51</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E25" s="3">
         <v>105.787732017547</v>
@@ -1868,7 +1880,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E26" s="3">
         <v>105.857375507832</v>
@@ -1888,7 +1900,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1899,7 +1911,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E27" s="3">
         <v>105.793809016759</v>
@@ -1908,7 +1920,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1919,7 +1931,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" s="3">
         <v>105.85037343716201</v>
@@ -1928,7 +1940,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1938,8 +1950,8 @@
       <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>242</v>
+      <c r="D29" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="E29" s="3">
         <v>105.802778452292</v>
@@ -1948,7 +1960,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1958,8 +1970,8 @@
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>243</v>
+      <c r="D30" s="6" t="s">
+        <v>316</v>
       </c>
       <c r="E30" s="3">
         <v>108.216159</v>
@@ -1968,7 +1980,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E31" s="3">
         <v>105.81275100000001</v>
@@ -1988,38 +2000,38 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="3">
-        <v>106.690487</v>
+      <c r="C32" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="F32" s="3">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>246</v>
+      <c r="D33" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="E33" s="3">
         <v>105.80996</v>
@@ -2028,18 +2040,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>247</v>
+      <c r="D34" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="E34" s="3">
         <v>106.65069</v>
@@ -2048,38 +2060,38 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E35" s="3">
-        <v>105.794214</v>
+      <c r="D35" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="F35" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E36" s="3">
         <v>105.824139</v>
@@ -2088,38 +2100,38 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E37" s="3">
-        <v>106.68808</v>
+      <c r="D37" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E38" s="3">
         <v>105.85419</v>
@@ -2128,18 +2140,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E39" s="3">
         <v>105.849686930461</v>
@@ -2148,18 +2160,18 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E40" s="3">
         <v>105.818744647651</v>
@@ -2168,18 +2180,18 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E41" s="3">
         <v>105.813811137371</v>
@@ -2188,18 +2200,18 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E42" s="3">
         <v>105.892694311203</v>
@@ -2208,18 +2220,18 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E43" s="3">
         <v>105.848099237657</v>
@@ -2228,18 +2240,18 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E44" s="3">
         <v>105.849119363746</v>
@@ -2248,18 +2260,18 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E45" s="3">
         <v>105.847802313299</v>
@@ -2268,18 +2280,18 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E46" s="3">
         <v>105.790475064879</v>
@@ -2288,18 +2300,18 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E47" s="3">
         <v>105.852290974317</v>
@@ -2308,18 +2320,18 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E48" s="3">
         <v>105.86583160000001</v>
@@ -2328,18 +2340,18 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E49" s="3">
         <v>105.7621843</v>
@@ -2348,18 +2360,18 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E50" s="3">
         <v>105.81085109999999</v>
@@ -2368,18 +2380,18 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E51" s="3">
         <v>105.82121069999999</v>
@@ -2388,18 +2400,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E52" s="3">
         <v>105.7992653</v>
@@ -2408,18 +2420,18 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E53" s="3">
         <v>105.85999440000001</v>
@@ -2428,18 +2440,18 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E54" s="3">
         <v>105.8179761</v>
@@ -2448,18 +2460,18 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E55" s="3">
         <v>105.8117402</v>
@@ -2468,18 +2480,18 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E56" s="3">
         <v>105.8027965</v>
@@ -2488,18 +2500,18 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E57" s="3">
         <v>105.8442336</v>
@@ -2508,18 +2520,18 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E58" s="4">
         <v>105.78703394588101</v>
@@ -2528,18 +2540,18 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E59" s="4">
         <v>105.80803993377199</v>
@@ -2548,18 +2560,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E60" s="4">
         <v>105.816200300145</v>
@@ -2568,18 +2580,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E61" s="4">
         <v>105.78847887002</v>
@@ -2588,18 +2600,18 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E62" s="4">
         <v>105.803247824377</v>
@@ -2608,18 +2620,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E63" s="4">
         <v>105.822116184181</v>
@@ -2628,18 +2640,18 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E64" s="4">
         <v>105.811221768447</v>
@@ -2648,18 +2660,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E65" s="4">
         <v>105.808473487496</v>
@@ -2668,18 +2680,18 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E66" s="4">
         <v>105.811809207352</v>
@@ -2688,18 +2700,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E67" s="4">
         <v>105.810480154391</v>
@@ -2708,18 +2720,18 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E68" s="4">
         <v>105.80932258562299</v>
@@ -2728,18 +2740,18 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E69" s="4">
         <v>105.81805630241401</v>
@@ -2748,18 +2760,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E70" s="4">
         <v>105.802664259342</v>
@@ -2768,18 +2780,18 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E71" s="4">
         <v>105.80950696247901</v>
@@ -2788,18 +2800,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E72" s="4">
         <v>105.803326413617</v>
@@ -2808,18 +2820,18 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E73" s="4">
         <v>105.79587469282301</v>
@@ -2828,18 +2840,18 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E74" s="4">
         <v>105.827717039156</v>
@@ -2848,18 +2860,18 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E75" s="4">
         <v>105.80992500000001</v>
@@ -2868,18 +2880,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E76" s="4">
         <v>105.81022</v>
@@ -2888,7 +2900,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2896,10 +2908,10 @@
         <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E77" s="4">
         <v>105.8035575</v>
@@ -2908,18 +2920,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E78" s="4">
         <v>105.8093612</v>
@@ -2928,18 +2940,18 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E79" s="4">
         <v>105.8122858</v>
@@ -2948,18 +2960,18 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E80" s="4">
         <v>105.811644197418</v>
@@ -2968,18 +2980,18 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E81" s="4">
         <v>105.80706771439</v>
@@ -2988,18 +3000,18 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E82" s="4">
         <v>105.81701360561</v>
@@ -3008,18 +3020,18 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E83" s="4">
         <v>105.80985304087901</v>
@@ -3028,18 +3040,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E84" s="4">
         <v>105.849008716261</v>
@@ -3048,18 +3060,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E85" s="4">
         <v>105.83297654845801</v>
@@ -3068,18 +3080,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E86" s="4">
         <v>105.80913003833101</v>
@@ -3088,18 +3100,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E87" s="4">
         <v>105.836375033243</v>
@@ -3108,18 +3120,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E88" s="4">
         <v>105.832986166764</v>
@@ -3128,18 +3140,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E89" s="4">
         <v>105.814497305107</v>
@@ -3148,18 +3160,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E90" s="4">
         <v>105.81835711748199</v>
@@ -3168,18 +3180,18 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E91" s="4">
         <v>105.820758039263</v>
@@ -3188,18 +3200,18 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E92" s="4">
         <v>105.810478997798</v>
@@ -3208,18 +3220,18 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E93" s="4">
         <v>105.774787450121</v>
@@ -3228,18 +3240,18 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E94" s="4">
         <v>105.84809821475</v>
@@ -3248,18 +3260,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E95" s="4">
         <v>105.819603259757</v>
@@ -3268,18 +3280,18 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E96" s="4">
         <v>105.813526465217</v>
@@ -3288,18 +3300,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E97" s="4">
         <v>105.85180084429101</v>
@@ -3308,18 +3320,18 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E98" s="4">
         <v>105.81096313514099</v>
@@ -3328,18 +3340,18 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E99" s="4">
         <v>105.79330212237301</v>
@@ -3348,18 +3360,18 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E100" s="4">
         <v>105.812697613401</v>
@@ -3368,18 +3380,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E101" s="4">
         <v>105.811568303654</v>
@@ -3388,18 +3400,18 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E102" s="4">
         <v>105.801572527658</v>
@@ -3408,18 +3420,18 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E103" s="4">
         <v>105.819570582168</v>
@@ -3428,18 +3440,18 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E104" s="4">
         <v>105.808902401029</v>
@@ -3448,18 +3460,18 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E105" s="4">
         <v>105.812938396877</v>
@@ -3468,18 +3480,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E106" s="4">
         <v>105.81627215501</v>
@@ -3488,18 +3500,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E107" s="4">
         <v>105.812678561007</v>
@@ -3508,18 +3520,18 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E108" s="4">
         <v>105.80570787069701</v>

--- a/DASA1.xlsx
+++ b/DASA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Hoc\Projects\hethongthongminh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB468E3E-88CE-470D-B4F8-0AC8F6CAC4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A22CC-ADD5-48CE-8AB5-F7CEEFCD0D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="327">
   <si>
     <t>Địa chỉ nhà</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Võ Thị Hương</t>
   </si>
   <si>
-    <t>32 Nguyễn Văn Linh, phường Vĩnh Trung</t>
-  </si>
-  <si>
     <t>Lê Thị Mai</t>
   </si>
   <si>
@@ -231,9 +228,6 @@
     <t>Phạm Thị Hoa</t>
   </si>
   <si>
-    <t>11 Tô Ngọc Vân, phường Linh Tây</t>
-  </si>
-  <si>
     <t>Trần Minh Hải</t>
   </si>
   <si>
@@ -975,12 +969,6 @@
     <t>20.997468935118016</t>
   </si>
   <si>
-    <t>20.060499</t>
-  </si>
-  <si>
-    <t>21.0747580</t>
-  </si>
-  <si>
     <t>21.0131391</t>
   </si>
   <si>
@@ -1000,6 +988,24 @@
   </si>
   <si>
     <t>12 Lê Hồng Phong</t>
+  </si>
+  <si>
+    <t>105.82527436822804</t>
+  </si>
+  <si>
+    <t>21.068137741691334</t>
+  </si>
+  <si>
+    <t>11 Tô Ngọc Vân</t>
+  </si>
+  <si>
+    <t>21.03635774477897</t>
+  </si>
+  <si>
+    <t>105.79001216969687</t>
+  </si>
+  <si>
+    <t>334 Cầu Giấy</t>
   </si>
 </sst>
 </file>
@@ -1368,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,8 +1383,8 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1387,15 +1393,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1410,11 +1416,11 @@
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>105.81032244281</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="F2" s="2">
         <v>4.4000000000000004</v>
@@ -1430,11 +1436,11 @@
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2">
         <v>105.806701408824</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="F3" s="2">
         <v>4.8</v>
@@ -1450,11 +1456,11 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>105.82230587855599</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F4" s="2">
         <v>3.2</v>
@@ -1470,11 +1476,11 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
         <v>105.791127076644</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="F5" s="2">
         <v>6.8</v>
@@ -1490,11 +1496,11 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
         <v>105.795255224729</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="F6" s="2">
         <v>5.7</v>
@@ -1510,11 +1516,11 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
         <v>105.844420055303</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F7" s="2">
         <v>2.5</v>
@@ -1530,11 +1536,11 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2">
         <v>105.81292728867901</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="F8" s="2">
         <v>3.6</v>
@@ -1550,11 +1556,11 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
         <v>105.827454503227</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="F9" s="2">
         <v>5.2</v>
@@ -1570,11 +1576,11 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
         <v>105.801562186119</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F10" s="2">
         <v>3.9</v>
@@ -1590,11 +1596,11 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
         <v>105.8141240628</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="F11" s="2">
         <v>4.3</v>
@@ -1610,11 +1616,11 @@
       <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
         <v>105.81284346299999</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F12" s="2">
         <v>3.9</v>
@@ -1630,11 +1636,11 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
         <v>105.80291017010001</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F13" s="2">
         <v>5.9</v>
@@ -1650,11 +1656,11 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
         <v>105.843757166</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="F14" s="2">
         <v>4.0999999999999996</v>
@@ -1670,11 +1676,11 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
         <v>105.85625295299999</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F15" s="2">
         <v>3.2</v>
@@ -1690,11 +1696,11 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="2">
         <v>105.81500733</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="F16" s="2">
         <v>5.2</v>
@@ -1710,11 +1716,11 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
         <v>105.7873040835</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="F17" s="2">
         <v>5.6</v>
@@ -1730,11 +1736,11 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="2">
         <v>105.81251213</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="F18" s="2">
         <v>4.4000000000000004</v>
@@ -1750,11 +1756,11 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="2">
         <v>105.811295704</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F19" s="2">
         <v>4.8</v>
@@ -1770,11 +1776,11 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="2">
         <v>105.793096151</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F20" s="2">
         <v>5.5</v>
@@ -1790,11 +1796,11 @@
       <c r="C21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
         <v>105.851051968269</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="F21" s="3">
         <v>1.92</v>
@@ -1810,11 +1816,11 @@
       <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
         <v>105.80130106854</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="F22" s="3">
         <v>4.38</v>
@@ -1830,11 +1836,11 @@
       <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
         <v>105.812151394309</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="F23" s="3">
         <v>3.09</v>
@@ -1850,11 +1856,11 @@
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
         <v>105.84714346008001</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="F24" s="3">
         <v>2.38</v>
@@ -1870,11 +1876,11 @@
       <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="3">
         <v>105.787732017547</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="F25" s="3">
         <v>5.03</v>
@@ -1890,11 +1896,11 @@
       <c r="C26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
         <v>105.857375507832</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="F26" s="3">
         <v>2.4700000000000002</v>
@@ -1910,11 +1916,11 @@
       <c r="C27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
         <v>105.793809016759</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="F27" s="3">
         <v>4.63</v>
@@ -1930,11 +1936,11 @@
       <c r="C28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28" s="3">
         <v>105.85037343716201</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="F28" s="3">
         <v>2.97</v>
@@ -1950,11 +1956,11 @@
       <c r="C29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
         <v>105.802778452292</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="F29" s="3">
         <v>3.87</v>
@@ -1967,14 +1973,14 @@
       <c r="B30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
+      <c r="C30" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E30" s="3">
-        <v>108.216159</v>
+        <v>325</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>324</v>
       </c>
       <c r="F30" s="3">
         <v>2.6</v>
@@ -1985,16 +1991,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="3">
         <v>105.81275100000001</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="F31" s="3">
         <v>3.6</v>
@@ -2005,16 +2011,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F32" s="3">
         <v>4.9000000000000004</v>
@@ -2025,16 +2031,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3">
         <v>105.80996</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="F33" s="3">
         <v>3.8</v>
@@ -2045,16 +2051,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>323</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="3">
-        <v>106.65069</v>
+        <v>321</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="F34" s="3">
         <v>5.8</v>
@@ -2065,16 +2071,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F35" s="3">
         <v>4.4000000000000004</v>
@@ -2085,16 +2091,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E36" s="3">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3">
         <v>105.824139</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="F36" s="3">
         <v>3.9</v>
@@ -2105,16 +2111,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F37" s="3">
         <v>5</v>
@@ -2125,16 +2131,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="3">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3">
         <v>105.85419</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="F38" s="3">
         <v>3.3</v>
@@ -2145,16 +2151,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="3">
+        <v>76</v>
+      </c>
+      <c r="D39" s="3">
         <v>105.849686930461</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="F39" s="3">
         <v>1.74</v>
@@ -2165,16 +2171,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" s="3">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3">
         <v>105.818744647651</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="F40" s="3">
         <v>4.37</v>
@@ -2185,16 +2191,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="3">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3">
         <v>105.813811137371</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="F41" s="3">
         <v>3.33</v>
@@ -2205,16 +2211,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E42" s="3">
+        <v>82</v>
+      </c>
+      <c r="D42" s="3">
         <v>105.892694311203</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="F42" s="3">
         <v>4.8499999999999996</v>
@@ -2225,16 +2231,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="3">
+        <v>84</v>
+      </c>
+      <c r="D43" s="3">
         <v>105.848099237657</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="F43" s="3">
         <v>1.52</v>
@@ -2245,16 +2251,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E44" s="3">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3">
         <v>105.849119363746</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>249</v>
       </c>
       <c r="F44" s="3">
         <v>1.43</v>
@@ -2265,16 +2271,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" s="3">
+        <v>88</v>
+      </c>
+      <c r="D45" s="3">
         <v>105.847802313299</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="F45" s="3">
         <v>2.35</v>
@@ -2285,16 +2291,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="3">
+        <v>90</v>
+      </c>
+      <c r="D46" s="3">
         <v>105.790475064879</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F46" s="3">
         <v>5.3</v>
@@ -2305,16 +2311,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E47" s="3">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3">
         <v>105.852290974317</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="F47" s="3">
         <v>2.98</v>
@@ -2325,16 +2331,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="3">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3">
         <v>105.86583160000001</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="F48" s="3">
         <v>5.16</v>
@@ -2345,16 +2351,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E49" s="3">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3">
         <v>105.7621843</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F49" s="3">
         <v>5.96</v>
@@ -2365,16 +2371,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E50" s="3">
+        <v>99</v>
+      </c>
+      <c r="D50" s="3">
         <v>105.81085109999999</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="F50" s="3">
         <v>4.4800000000000004</v>
@@ -2385,16 +2391,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E51" s="3">
+        <v>101</v>
+      </c>
+      <c r="D51" s="3">
         <v>105.82121069999999</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="F51" s="3">
         <v>4</v>
@@ -2405,16 +2411,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E52" s="3">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3">
         <v>105.7992653</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="F52" s="3">
         <v>3.85</v>
@@ -2425,16 +2431,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E53" s="3">
+        <v>105</v>
+      </c>
+      <c r="D53" s="3">
         <v>105.85999440000001</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F53" s="3">
         <v>5.6</v>
@@ -2445,16 +2451,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E54" s="3">
+        <v>107</v>
+      </c>
+      <c r="D54" s="3">
         <v>105.8179761</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="F54" s="3">
         <v>5.56</v>
@@ -2465,16 +2471,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E55" s="3">
+        <v>109</v>
+      </c>
+      <c r="D55" s="3">
         <v>105.8117402</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="F55" s="3">
         <v>4.4800000000000004</v>
@@ -2485,16 +2491,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" s="3">
+        <v>111</v>
+      </c>
+      <c r="D56" s="3">
         <v>105.8027965</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F56" s="3">
         <v>5.39</v>
@@ -2505,16 +2511,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" s="3">
+        <v>113</v>
+      </c>
+      <c r="D57" s="3">
         <v>105.8442336</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="F57" s="3">
         <v>5.25</v>
@@ -2525,16 +2531,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E58" s="4">
+        <v>115</v>
+      </c>
+      <c r="D58" s="4">
         <v>105.78703394588101</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="F58" s="4">
         <v>6.3</v>
@@ -2545,16 +2551,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" s="4">
+        <v>117</v>
+      </c>
+      <c r="D59" s="4">
         <v>105.80803993377199</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="F59" s="4">
         <v>3.7</v>
@@ -2565,16 +2571,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E60" s="4">
+        <v>119</v>
+      </c>
+      <c r="D60" s="4">
         <v>105.816200300145</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="F60" s="4">
         <v>4.5</v>
@@ -2585,16 +2591,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E61" s="4">
+        <v>121</v>
+      </c>
+      <c r="D61" s="4">
         <v>105.78847887002</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="F61" s="4">
         <v>6.9</v>
@@ -2605,16 +2611,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E62" s="4">
+        <v>123</v>
+      </c>
+      <c r="D62" s="4">
         <v>105.803247824377</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="F62" s="4">
         <v>4.8</v>
@@ -2625,16 +2631,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E63" s="4">
+        <v>125</v>
+      </c>
+      <c r="D63" s="4">
         <v>105.822116184181</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="F63" s="4">
         <v>5.6</v>
@@ -2645,16 +2651,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="4">
+        <v>141</v>
+      </c>
+      <c r="D64" s="4">
         <v>105.811221768447</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="F64" s="4">
         <v>3.3</v>
@@ -2665,16 +2671,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E65" s="4">
+        <v>143</v>
+      </c>
+      <c r="D65" s="4">
         <v>105.808473487496</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="F65" s="4">
         <v>6.4</v>
@@ -2685,16 +2691,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E66" s="4">
+        <v>144</v>
+      </c>
+      <c r="D66" s="4">
         <v>105.811809207352</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="F66" s="4">
         <v>3.6</v>
@@ -2705,16 +2711,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E67" s="4">
+        <v>146</v>
+      </c>
+      <c r="D67" s="4">
         <v>105.810480154391</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="F67" s="4">
         <v>6.4</v>
@@ -2725,16 +2731,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="4">
+        <v>129</v>
+      </c>
+      <c r="D68" s="4">
         <v>105.80932258562299</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="F68" s="4">
         <v>5.0999999999999996</v>
@@ -2745,16 +2751,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E69" s="4">
+        <v>130</v>
+      </c>
+      <c r="D69" s="4">
         <v>105.81805630241401</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="F69" s="4">
         <v>4.5999999999999996</v>
@@ -2765,16 +2771,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E70" s="4">
+        <v>132</v>
+      </c>
+      <c r="D70" s="4">
         <v>105.802664259342</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="F70" s="4">
         <v>5.5</v>
@@ -2785,16 +2791,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="4">
+        <v>134</v>
+      </c>
+      <c r="D71" s="4">
         <v>105.80950696247901</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="F71" s="4">
         <v>3.5</v>
@@ -2805,16 +2811,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E72" s="4">
+        <v>136</v>
+      </c>
+      <c r="D72" s="4">
         <v>105.803326413617</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="F72" s="4">
         <v>6.8</v>
@@ -2825,16 +2831,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E73" s="4">
+        <v>138</v>
+      </c>
+      <c r="D73" s="4">
         <v>105.79587469282301</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="F73" s="4">
         <v>6.1</v>
@@ -2845,16 +2851,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E74" s="4">
+        <v>139</v>
+      </c>
+      <c r="D74" s="4">
         <v>105.827717039156</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="F74" s="4">
         <v>6.7</v>
@@ -2865,16 +2871,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E75" s="4">
+        <v>148</v>
+      </c>
+      <c r="D75" s="4">
         <v>105.80992500000001</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="F75" s="4">
         <v>4.3</v>
@@ -2885,16 +2891,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E76" s="4">
+        <v>150</v>
+      </c>
+      <c r="D76" s="4">
         <v>105.81022</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="F76" s="4">
         <v>3.5</v>
@@ -2908,13 +2914,13 @@
         <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E77" s="4">
+        <v>151</v>
+      </c>
+      <c r="D77" s="4">
         <v>105.8035575</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="F77" s="4">
         <v>4.3</v>
@@ -2925,16 +2931,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E78" s="4">
+        <v>153</v>
+      </c>
+      <c r="D78" s="4">
         <v>105.8093612</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="F78" s="4">
         <v>4.7</v>
@@ -2945,16 +2951,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E79" s="4">
+        <v>155</v>
+      </c>
+      <c r="D79" s="4">
         <v>105.8122858</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="F79" s="4">
         <v>5.6</v>
@@ -2965,16 +2971,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E80" s="4">
+        <v>157</v>
+      </c>
+      <c r="D80" s="4">
         <v>105.811644197418</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="F80" s="4">
         <v>5.0999999999999996</v>
@@ -2985,16 +2991,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" s="4">
+        <v>159</v>
+      </c>
+      <c r="D81" s="4">
         <v>105.80706771439</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F81" s="4">
         <v>4.7</v>
@@ -3005,16 +3011,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E82" s="4">
+        <v>161</v>
+      </c>
+      <c r="D82" s="4">
         <v>105.81701360561</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="F82" s="4">
         <v>6.8</v>
@@ -3025,16 +3031,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="E83" s="4">
+        <v>163</v>
+      </c>
+      <c r="D83" s="4">
         <v>105.80985304087901</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="F83" s="4">
         <v>3.3</v>
@@ -3045,16 +3051,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E84" s="4">
+        <v>165</v>
+      </c>
+      <c r="D84" s="4">
         <v>105.849008716261</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="F84" s="4">
         <v>4.4000000000000004</v>
@@ -3065,16 +3071,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E85" s="4">
+        <v>167</v>
+      </c>
+      <c r="D85" s="4">
         <v>105.83297654845801</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="F85" s="4">
         <v>3.6</v>
@@ -3085,16 +3091,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="4">
+        <v>168</v>
+      </c>
+      <c r="D86" s="4">
         <v>105.80913003833101</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="F86" s="4">
         <v>3.5</v>
@@ -3105,16 +3111,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E87" s="4">
+        <v>170</v>
+      </c>
+      <c r="D87" s="4">
         <v>105.836375033243</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="F87" s="4">
         <v>3.7</v>
@@ -3125,16 +3131,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E88" s="4">
+        <v>172</v>
+      </c>
+      <c r="D88" s="4">
         <v>105.832986166764</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="F88" s="4">
         <v>3.5</v>
@@ -3145,16 +3151,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="4">
+        <v>174</v>
+      </c>
+      <c r="D89" s="4">
         <v>105.814497305107</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="F89" s="4">
         <v>3.3</v>
@@ -3165,16 +3171,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E90" s="4">
+        <v>176</v>
+      </c>
+      <c r="D90" s="4">
         <v>105.81835711748199</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="F90" s="4">
         <v>3.3</v>
@@ -3185,16 +3191,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E91" s="4">
+        <v>178</v>
+      </c>
+      <c r="D91" s="4">
         <v>105.820758039263</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="F91" s="4">
         <v>3.5</v>
@@ -3205,16 +3211,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="4">
+        <v>180</v>
+      </c>
+      <c r="D92" s="4">
         <v>105.810478997798</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="F92" s="4">
         <v>3.6</v>
@@ -3225,16 +3231,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="4">
+        <v>182</v>
+      </c>
+      <c r="D93" s="4">
         <v>105.774787450121</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="F93" s="4">
         <v>4.7</v>
@@ -3245,16 +3251,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E94" s="4">
+        <v>184</v>
+      </c>
+      <c r="D94" s="4">
         <v>105.84809821475</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="F94" s="4">
         <v>4.8</v>
@@ -3265,16 +3271,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E95" s="4">
+        <v>186</v>
+      </c>
+      <c r="D95" s="4">
         <v>105.819603259757</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="F95" s="4">
         <v>4.3</v>
@@ -3285,16 +3291,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E96" s="4">
+        <v>188</v>
+      </c>
+      <c r="D96" s="4">
         <v>105.813526465217</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="F96" s="4">
         <v>3.8</v>
@@ -3305,16 +3311,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E97" s="4">
+        <v>190</v>
+      </c>
+      <c r="D97" s="4">
         <v>105.85180084429101</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="F97" s="4">
         <v>4.9000000000000004</v>
@@ -3325,16 +3331,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E98" s="4">
+        <v>192</v>
+      </c>
+      <c r="D98" s="4">
         <v>105.81096313514099</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="F98" s="4">
         <v>4.5999999999999996</v>
@@ -3345,16 +3351,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E99" s="4">
+        <v>194</v>
+      </c>
+      <c r="D99" s="4">
         <v>105.79330212237301</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="F99" s="4">
         <v>4.9000000000000004</v>
@@ -3365,16 +3371,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E100" s="4">
+        <v>196</v>
+      </c>
+      <c r="D100" s="4">
         <v>105.812697613401</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="F100" s="4">
         <v>4.2</v>
@@ -3385,16 +3391,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E101" s="4">
+        <v>198</v>
+      </c>
+      <c r="D101" s="4">
         <v>105.811568303654</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="F101" s="4">
         <v>4.7</v>
@@ -3405,16 +3411,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E102" s="4">
+        <v>200</v>
+      </c>
+      <c r="D102" s="4">
         <v>105.801572527658</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="F102" s="4">
         <v>4.9000000000000004</v>
@@ -3425,16 +3431,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" s="4">
+        <v>202</v>
+      </c>
+      <c r="D103" s="4">
         <v>105.819570582168</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="F103" s="4">
         <v>4.8</v>
@@ -3445,16 +3451,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E104" s="4">
+        <v>203</v>
+      </c>
+      <c r="D104" s="4">
         <v>105.808902401029</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="F104" s="4">
         <v>4.4000000000000004</v>
@@ -3465,16 +3471,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E105" s="4">
+        <v>205</v>
+      </c>
+      <c r="D105" s="4">
         <v>105.812938396877</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="F105" s="4">
         <v>4.2</v>
@@ -3485,16 +3491,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E106" s="4">
+        <v>207</v>
+      </c>
+      <c r="D106" s="4">
         <v>105.81627215501</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="F106" s="4">
         <v>4.5</v>
@@ -3505,16 +3511,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E107" s="4">
+        <v>209</v>
+      </c>
+      <c r="D107" s="4">
         <v>105.812678561007</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="F107" s="4">
         <v>4.2</v>
@@ -3525,16 +3531,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E108" s="4">
+        <v>211</v>
+      </c>
+      <c r="D108" s="4">
         <v>105.80570787069701</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="F108" s="4">
         <v>4.9000000000000004</v>
